--- a/data/trans_dic/P70A01_2007-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70A01_2007-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,44%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>49,38; 65,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>24,98; 43,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>40,75; 53,88</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,82%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>76,75; 86,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>60,15; 76,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>73,36; 82,11</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,52%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>74,58; 88,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>42,37; 67,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>65,86; 77,94</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,03%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>55,81; 69,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>38,32; 56,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>51,44; 62,44</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,8%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>83,18; 95,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>44,44; 73,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>73,5; 87,0</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,86%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>68,23; 82,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>55,97; 77,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>66,39; 78,4</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,48%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,61%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,63%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>75,4; 84,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>61,83; 77,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>72,4; 80,58</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,01%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>83,39; 89,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>59,2; 71,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>76,79; 83,04</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,94%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,55%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,21%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>77,02; 80,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>56,16; 62,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>70,31; 73,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70A01_2007-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70A01_2007-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,38; 65,99</t>
+          <t>49,22; 65,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,98; 43,33</t>
+          <t>24,27; 43,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,75; 53,88</t>
+          <t>41,49; 54,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,75; 86,78</t>
+          <t>77,36; 86,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,15; 76,0</t>
+          <t>61,19; 75,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,36; 82,11</t>
+          <t>73,8; 81,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>74,58; 88,11</t>
+          <t>74,92; 88,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,37; 67,3</t>
+          <t>40,89; 65,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,86; 77,94</t>
+          <t>65,54; 78,37</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>55,81; 69,85</t>
+          <t>55,5; 69,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,32; 56,08</t>
+          <t>37,84; 56,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,44; 62,44</t>
+          <t>51,19; 62,33</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>83,18; 95,04</t>
+          <t>83,38; 95,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,44; 73,87</t>
+          <t>44,39; 73,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,5; 87,0</t>
+          <t>73,5; 86,88</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>68,23; 82,81</t>
+          <t>69,05; 83,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>55,97; 77,14</t>
+          <t>54,98; 76,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66,39; 78,4</t>
+          <t>66,06; 78,56</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,4; 84,64</t>
+          <t>75,53; 84,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>61,83; 77,05</t>
+          <t>61,49; 76,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>72,4; 80,58</t>
+          <t>72,32; 80,61</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>83,39; 89,92</t>
+          <t>83,18; 90,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>59,2; 71,71</t>
+          <t>59,06; 71,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>76,79; 83,04</t>
+          <t>76,61; 83,0</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>77,02; 80,92</t>
+          <t>76,91; 80,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>56,16; 62,54</t>
+          <t>56,29; 62,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>70,31; 73,81</t>
+          <t>70,4; 73,92</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han informado sobre los riesgos laborales de su trabajo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>87546</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34536</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>122082</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>75142; 99895</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25399; 45986</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>106756; 139765</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>221714</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>90680</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>312394</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>208398; 233860</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>80784; 99720</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>296234; 328225</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>119379</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>39485</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>158864</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>108979; 128157</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30099; 47854</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>143563; 171685</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>125573</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>54426</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>180000</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>110487; 138155</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>44104; 65580</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>161559; 196717</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>100798</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>29475</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>130273</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>93212; 106244</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21945; 36360</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>118504; 140070</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>101401</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>51148</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>152549</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>91701; 110264</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>42100; 58907</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>138323; 164479</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>232455</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>110267</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>342722</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>218154; 245002</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>97390; 121244</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>323443; 360532</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>399664</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>147374</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>547039</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>381808; 413607</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>132708; 161187</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>523828; 567491</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1330</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1388531</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>557390</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1945922</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1352831; 1423537</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>526843; 585099</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1897179; 1992072</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>